--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3279.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3279.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7881168996319868</v>
+        <v>1.298330068588257</v>
       </c>
       <c r="B1">
-        <v>1.118540362216255</v>
+        <v>2.47739577293396</v>
       </c>
       <c r="C1">
-        <v>2.075663767587282</v>
+        <v>3.175394058227539</v>
       </c>
       <c r="D1">
-        <v>4.997764372890347</v>
+        <v>1.586362957954407</v>
       </c>
       <c r="E1">
-        <v>2.404131242418592</v>
+        <v>1.145838856697083</v>
       </c>
     </row>
   </sheetData>
